--- a/iselUssSyncV2/OutputWSLorientation/20220524_1118_D50L474W30Q11.5U0.29H49.6G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1118_D50L474W30Q11.5U0.29H49.6G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.022591094178994076</v>
+        <v>0.011295547089497038</v>
       </c>
       <c r="O2" s="0">
-        <v>0.57583594357222168</v>
+        <v>0.28791797178611084</v>
       </c>
       <c r="P2" s="0">
         <v>167.71975666666668</v>
@@ -356,10 +356,10 @@
         <v>1.6453308129000002</v>
       </c>
       <c r="R2" s="0">
-        <v>1.6952247021916576</v>
+        <v>3.3904494043833151</v>
       </c>
       <c r="S2" s="0">
-        <v>0.304996601094919</v>
+        <v>1.7191640378814739</v>
       </c>
       <c r="T2" s="0">
         <v>0.027849933569154283</v>
@@ -383,16 +383,16 @@
         <v>140000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.97056797884837787</v>
+        <v>0.48528398942418893</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.3945873724276403</v>
+        <v>0.95705283303130384</v>
       </c>
       <c r="AC2" s="0">
-        <v>6.3012934912372325</v>
+        <v>3.1506467456186162</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.8133655270783104</v>
+        <v>1.4066827635391552</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>11.695880863664872</v>
+        <v>4.1076995786499202</v>
       </c>
     </row>
   </sheetData>
